--- a/medicine/Sexualité et sexologie/Journée_nationale_de_l'orgasme/Journée_nationale_de_l'orgasme.xlsx
+++ b/medicine/Sexualité et sexologie/Journée_nationale_de_l'orgasme/Journée_nationale_de_l'orgasme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_nationale_de_l%27orgasme</t>
+          <t>Journée_nationale_de_l'orgasme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Journée nationale de l'orgasme est une célébration de l'orgasme sexuel et de la sensibilisation aux questions liées à l'orgasme sexuel. Elle est généralement célébrée chaque année le 31 juillet dans le monde entier.
 La Journée nationale de l'orgasme est une émanation de la Journée internationale de l'orgasme féminin (8 août).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_nationale_de_l%27orgasme</t>
+          <t>Journée_nationale_de_l'orgasme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Célébrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les participants à cette journée célèbrent en :
 Se donnant un orgasme,
 Se masturbant,
-Sensibilisant à ce que sont les orgasmes et comment en avoir un (en particulier destiné aux femmes en raison de la stigmatisation sociale entourant l'orgasme féminin )[1],
-Sensibilisant aux bienfaits des orgasmes pour la santé[2],[1],
-Sensibilisant au "fossé de l'orgasme"[2],
-La diffusion d'une discussion sur la pratique consistant à simuler un orgasme[3],[4],[2].</t>
+Sensibilisant à ce que sont les orgasmes et comment en avoir un (en particulier destiné aux femmes en raison de la stigmatisation sociale entourant l'orgasme féminin ),
+Sensibilisant aux bienfaits des orgasmes pour la santé
+Sensibilisant au "fossé de l'orgasme",
+La diffusion d'une discussion sur la pratique consistant à simuler un orgasme.</t>
         </is>
       </c>
     </row>
